--- a/Docs/Holly Hotel - Database Dictionary.xlsx
+++ b/Docs/Holly Hotel - Database Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -905,6 +905,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -912,12 +925,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,13 +936,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,20 +1251,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1466,20 +1466,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1616,20 +1616,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1737,20 +1737,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1954,20 +1954,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2060,20 +2060,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2208,20 +2208,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2356,20 +2356,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2609,20 +2609,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2866,20 +2866,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -3077,20 +3077,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -3233,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,20 +3246,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -3333,7 +3333,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -3402,20 +3402,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -3571,20 +3571,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -3698,20 +3698,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -3867,41 +3867,41 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4092,24 +4092,24 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:7" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4137,20 +4137,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -4366,7 +4366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
@@ -4478,20 +4478,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -4691,20 +4691,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -4881,20 +4881,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -4997,7 +4997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5010,20 +5010,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -5154,20 +5154,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">

--- a/Docs/Holly Hotel - Database Dictionary.xlsx
+++ b/Docs/Holly Hotel - Database Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="243">
   <si>
     <t>Table: CUSTOMER - Table contains the primary information for a customer or organization</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>Table: BUILDING_WING_FEATURES -Detail table of Building/Wing that allows the assignment of multiple features such as indoor pool, outdoor pool, parking</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1457,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,7 +1533,7 @@
         <v>123</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -2596,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3233,7 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
